--- a/Stata-logit-regression/Results_weighted-logit.xlsx
+++ b/Stata-logit-regression/Results_weighted-logit.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liu34\Documents\GitHub\Guyana-concesssion\Stata-logit-regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540AC52-5903-41EF-B91A-14DA8F186EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9486633B-A56B-4810-8B77-C3AC12046E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9504" yWindow="876" windowWidth="30540" windowHeight="14868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13056" yWindow="684" windowWidth="23976" windowHeight="14868" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross-sectional-weighted" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="38">
   <si>
     <t>Robust</t>
   </si>
@@ -103,13 +104,52 @@
   </si>
   <si>
     <t>C vs M</t>
+  </si>
+  <si>
+    <t>Overlap vs Control</t>
+  </si>
+  <si>
+    <t>Timber vs Control</t>
+  </si>
+  <si>
+    <t>Timber vs Overlap</t>
+  </si>
+  <si>
+    <t>Mining vs Control</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>p &lt; 0.05 *, p &lt; 0.01 **, p &lt; 0.001 ***</t>
+  </si>
+  <si>
+    <t>Weighted Cross-sectional analysis</t>
+  </si>
+  <si>
+    <t>LandType.Timber</t>
+  </si>
+  <si>
+    <t>LandType.Overlap</t>
+  </si>
+  <si>
+    <t>LandType.Mining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +157,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -134,13 +186,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6:AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,4 +2101,655 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6159BBB-3762-4B64-8326-50D1C58F58E8}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="7"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.59344779999999997</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
+        <v>1.107478</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.0838300000000007E-2</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <v>1.4406969999999999</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.405945</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-0.25419310000000001</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-0.1794396</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.4100512</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.089E-4</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-1.1709999999999999E-3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-9.9160000000000003E-4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4.6339999999999999E-4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.8997E-3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-2.8931E-3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-2.5829999999999998E-3</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.6897000000000002E-3</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4">
+        <v>-9.678E-4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-6.7420000000000002E-4</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
+        <v>-4.5790000000000002E-4</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4">
+        <v>-8.4769999999999995E-4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4">
+        <v>3.03317E-2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2.69806E-2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2.8285999999999999E-2</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.5399499999999998E-2</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.26731460000000001</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1.25985E-2</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4">
+        <v>2.70356E-2</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <v>0.1981241</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>-6.1199000000000002E-3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8.6618000000000007E-3</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="4">
+        <v>6.3080000000000002E-3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1.3730999999999999E-3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>-4.4013999999999998E-3</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-3.3775300000000001E-2</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-3.7279100000000003E-2</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="4">
+        <v>-3.16006E-2</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4">
+        <v>-1.1208600000000001E-2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-5.2334600000000002E-2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-5.4332900000000003E-2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="4">
+        <v>-1.7929299999999999E-2</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="4">
+        <v>-9.7610000000000006E-3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-8.7271999999999992E-3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-7.5855999999999996E-3</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7.5144000000000001E-3</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.397011</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2.3311899999999999</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2.573191</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.5588230000000001</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4.2150540000000003</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3.5402529999999999</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4">
+        <v>3.4682300000000001</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3.2953450000000002</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4.5270760000000001</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4.5836649999999999</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.3705959999999999</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3.695678</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="4">
+        <v>4.3391820000000001</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="4">
+        <v>5.6379890000000001</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="4">
+        <v>5.3498279999999996</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3.7904689999999999</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>3.738934</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="4">
+        <v>6.5634600000000001</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="4">
+        <v>6.1507579999999997</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3.5684879999999999</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A27:C27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>